--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -145,7 +145,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -153,32 +153,59 @@
     <xf numFmtId="49" fontId="2" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -186,43 +213,79 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="10">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="7">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="10">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="14">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="18">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="ValueTextStyle" xfId="3"/>
-    <cellStyle name="NumericStandardStyle" xfId="4"/>
-    <cellStyle name="NumericStandardWithBorderStyle" xfId="5"/>
-    <cellStyle name="NumericWithoutDecimalsStyle" xfId="6"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="7"/>
-    <cellStyle name="EmptyLineStyle" xfId="8"/>
-    <cellStyle name="TitleLineStyle" xfId="9"/>
-    <cellStyle name="FirstLineStyle" xfId="10"/>
+    <cellStyle name="HeaderStyle_Alternate" xfId="3"/>
+    <cellStyle name="ValueTextStyle" xfId="4"/>
+    <cellStyle name="ValueTextStyle_Alternate" xfId="5"/>
+    <cellStyle name="NumericStandardStyle" xfId="6"/>
+    <cellStyle name="NumericStandardStyle_Alternate" xfId="7"/>
+    <cellStyle name="NumericStandardWithBorderStyle" xfId="8"/>
+    <cellStyle name="NumericStandardWithBorderStyle_Alternate" xfId="9"/>
+    <cellStyle name="NumericWithoutDecimalsStyle" xfId="10"/>
+    <cellStyle name="NumericWithoutDecimalsStyle_Alternate" xfId="11"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="12"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle_Alternate" xfId="13"/>
+    <cellStyle name="EmptyLineStyle" xfId="14"/>
+    <cellStyle name="EmptyLineStyle_Alternate" xfId="15"/>
+    <cellStyle name="TitleLineStyle" xfId="16"/>
+    <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
+    <cellStyle name="FirstLineStyle" xfId="18"/>
+    <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -254,100 +317,100 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>37</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>3.9900000095367432</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>12.100000381469727</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>60.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>15.369999885559082</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>23.479999542236328</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>164.36000061035156</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <f>SUBTOTAL(109,C2:C6)</f>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <f>SUBTOTAL(109,D2:D6)</f>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <f>SUBTOTAL(109,E2:E6)</f>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBD4F46" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -145,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -204,8 +210,14 @@
     <xf numFmtId="166" fontId="3" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -264,8 +276,14 @@
     <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="20">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="21">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
@@ -286,6 +304,8 @@
     <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
     <cellStyle name="FirstLineStyle" xfId="18"/>
     <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
+    <cellStyle name="WhenChangeIdStyle" xfId="20"/>
+    <cellStyle name="WhenChangeIdStyle_Alternate" xfId="21"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$E$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -128,7 +128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000" tint="0"/>
+        <fgColor rgb="FFF5F5DC" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -313,7 +313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
@@ -354,84 +354,101 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="0">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="0">
         <v>12.100000381469727</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="0">
         <v>60.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>22.100000381469727</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="0">
         <v>12</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="0">
         <v>15.369999885559082</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="0">
         <v>184.44000244140625</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="0">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="0">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="0">
         <v>160</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="0">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="0">
         <v>23.479999542236328</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="0">
         <v>164.36000061035156</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
-        <f>SUBTOTAL(109,C2:C6)</f>
-      </c>
-      <c r="D7" s="8">
-        <f>SUBTOTAL(109,D2:D6)</f>
-      </c>
-      <c r="E7" s="8">
-        <f>SUBTOTAL(109,E2:E6)</f>
+    <row r="8">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
+        <f>SUBTOTAL(109,C2:C7)</f>
+      </c>
+      <c r="D8" s="8">
+        <f>SUBTOTAL(109,D2:D7)</f>
+      </c>
+      <c r="E8" s="8">
+        <f>SUBTOTAL(109,E2:E7)</f>
       </c>
     </row>
   </sheetData>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +122,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBD4F46" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
@@ -129,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5DC" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4C4" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -151,7 +169,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -162,62 +180,68 @@
     <xf numFmtId="49" fontId="2" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="8">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -228,10 +252,10 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
@@ -258,32 +282,38 @@
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="14">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="14">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="18">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="18">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="20">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="20">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="21">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" xfId="22">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="23">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
@@ -304,8 +334,10 @@
     <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
     <cellStyle name="FirstLineStyle" xfId="18"/>
     <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
-    <cellStyle name="WhenChangeIdStyle" xfId="20"/>
-    <cellStyle name="WhenChangeIdStyle_Alternate" xfId="21"/>
+    <cellStyle name="WhenChangeIdFirstStyle" xfId="20"/>
+    <cellStyle name="WhenChangeIdFirstStyle_Alternate" xfId="21"/>
+    <cellStyle name="WhenChangeIdSecondStyle" xfId="22"/>
+    <cellStyle name="WhenChangeIdSecondStyle_Alternate" xfId="23"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -337,36 +369,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="20">
         <v>37</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="20">
         <v>3.9900000095367432</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="20">
         <v>5</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="20">
         <v>12.100000381469727</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="20">
         <v>60.5</v>
       </c>
     </row>
@@ -388,53 +420,53 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="20">
         <v>12</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="20">
         <v>15.369999885559082</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="20">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="20">
         <v>20</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="20">
         <v>8</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="20">
         <v>160</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7" s="20">
         <v>7</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="20">
         <v>23.479999542236328</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="20">
         <v>164.36000061035156</v>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$E$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -345,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
@@ -386,36 +386,36 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="22">
         <v>5</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="22">
         <v>12.100000381469727</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="22">
         <v>60.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="22">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="22">
         <v>22.100000381469727</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="22">
         <v>100.5</v>
       </c>
     </row>
@@ -437,19 +437,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>20</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="22">
         <v>8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="22">
         <v>160</v>
       </c>
     </row>
@@ -471,16 +471,33 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12">
-        <f>SUBTOTAL(109,C2:C7)</f>
-      </c>
-      <c r="D8" s="8">
-        <f>SUBTOTAL(109,D2:D7)</f>
-      </c>
-      <c r="E8" s="8">
-        <f>SUBTOTAL(109,E2:E7)</f>
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20">
+        <v>22.100000381469727</v>
+      </c>
+      <c r="E8" s="20">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12">
+        <f>SUBTOTAL(109,C2:C8)</f>
+      </c>
+      <c r="D9" s="8">
+        <f>SUBTOTAL(109,D2:D8)</f>
+      </c>
+      <c r="E9" s="8">
+        <f>SUBTOTAL(109,E2:E8)</f>
       </c>
     </row>
   </sheetData>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -8,9 +8,9 @@
     <sheet name="EPPlus - Some data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$E$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE4C4" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FFFD4" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -169,7 +175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -240,8 +246,14 @@
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,8 +324,14 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="23">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" xfId="24">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="25">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
@@ -338,6 +356,8 @@
     <cellStyle name="WhenChangeIdFirstStyle_Alternate" xfId="21"/>
     <cellStyle name="WhenChangeIdSecondStyle" xfId="22"/>
     <cellStyle name="WhenChangeIdSecondStyle_Alternate" xfId="23"/>
+    <cellStyle name="QuantityEqualsZeroStyle" xfId="24"/>
+    <cellStyle name="QuantityEqualsZeroStyle_Alternate" xfId="25"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -345,163 +365,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
+    <row r="3">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="D3" s="20">
         <v>37</v>
       </c>
-      <c r="D2" s="20">
+      <c r="E3" s="20">
         <v>3.9900000095367432</v>
       </c>
-      <c r="E2" s="20">
+      <c r="F3" s="20">
         <v>147.6300048828125</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+    <row r="4">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22">
+      <c r="D4" s="22">
         <v>5</v>
       </c>
-      <c r="D3" s="22">
+      <c r="E4" s="22">
         <v>12.100000381469727</v>
       </c>
-      <c r="E3" s="22">
+      <c r="F4" s="22">
         <v>60.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
+    <row r="5">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22">
+      <c r="D5" s="22">
         <v>7</v>
       </c>
-      <c r="D4" s="22">
+      <c r="E5" s="22">
         <v>22.100000381469727</v>
       </c>
-      <c r="E4" s="22">
+      <c r="F5" s="22">
         <v>100.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
+    <row r="6">
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20">
+      <c r="D6" s="20">
         <v>12</v>
       </c>
-      <c r="D5" s="20">
+      <c r="E6" s="20">
         <v>15.369999885559082</v>
       </c>
-      <c r="E5" s="20">
+      <c r="F6" s="20">
         <v>184.44000244140625</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
+    <row r="7">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22">
+      <c r="D7" s="22">
         <v>20</v>
       </c>
-      <c r="D6" s="22">
+      <c r="E7" s="22">
         <v>8</v>
       </c>
-      <c r="E6" s="22">
+      <c r="F7" s="22">
         <v>160</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
+    <row r="8">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20">
+      <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="D7" s="20">
+      <c r="E8" s="20">
         <v>23.479999542236328</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F8" s="20">
         <v>164.36000061035156</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
+    <row r="9">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20">
+      <c r="D9" s="20">
         <v>7</v>
       </c>
-      <c r="D8" s="20">
+      <c r="E9" s="20">
         <v>22.100000381469727</v>
       </c>
-      <c r="E8" s="20">
+      <c r="F9" s="20">
         <v>100.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
-        <f>SUBTOTAL(109,C2:C8)</f>
-      </c>
-      <c r="D9" s="8">
-        <f>SUBTOTAL(109,D2:D8)</f>
-      </c>
-      <c r="E9" s="8">
-        <f>SUBTOTAL(109,E2:E8)</f>
+    <row r="10">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
+        <f>SUBTOTAL(109,D3:D9)</f>
+      </c>
+      <c r="E10" s="8">
+        <f>SUBTOTAL(109,E3:E9)</f>
+      </c>
+      <c r="F10" s="8">
+        <f>SUBTOTAL(109,F3:F9)</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="B2:F2"/>
   <pageMargins left="20" right="20" top="20" bottom="20" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,18 +117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000080" tint="0"/>
-        <bgColor rgb="FFFFFF" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-        <bgColor rgb="FFFFFF" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -186,67 +174,67 @@
     <xf numFmtId="49" fontId="2" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4">
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2">
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
@@ -264,10 +252,10 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="5">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
@@ -294,37 +282,37 @@
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="14">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="14">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="16">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="17">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="18">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="18">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="20">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="20">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="21">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" xfId="22">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="6" applyFill="1" xfId="22">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="23">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" xfId="24">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="24">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="25">
@@ -406,36 +394,36 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>12.100000381469727</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>60.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="6">
         <v>22.100000381469727</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="6">
         <v>100.5</v>
       </c>
     </row>
@@ -457,19 +445,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>20</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>8</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>160</v>
       </c>
     </row>
@@ -491,19 +479,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="10">
         <v>7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="6">
         <v>22.100000381469727</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="6">
         <v>100.5</v>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000080" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -174,67 +180,67 @@
     <xf numFmtId="49" fontId="2" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5">
+    <xf numFmtId="49" fontId="1" fillId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7">
+    <xf numFmtId="49" fontId="1" fillId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
@@ -252,7 +258,7 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
@@ -270,7 +276,7 @@
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="10">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="10">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="11">
@@ -282,37 +288,37 @@
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="14">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" xfId="14">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="18">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" xfId="18">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="20">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="6" applyFill="1" xfId="20">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="21">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="6" applyFill="1" xfId="22">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="22">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="23">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="24">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" xfId="24">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="25">
@@ -377,36 +383,36 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="24">
         <v>37</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="6">
         <v>3.9900000095367432</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="6">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="7">
         <v>12.100000381469727</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="7">
         <v>60.5</v>
       </c>
     </row>
@@ -428,53 +434,53 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="11">
         <v>12</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="7">
         <v>15.369999885559082</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="7">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="10">
         <v>20</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="11">
         <v>7</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="7">
         <v>23.479999542236328</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="7">
         <v>164.36000061035156</v>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -186,28 +186,28 @@
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="165" fontId="1" fillId="4">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5">
@@ -264,28 +264,28 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="7">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="9">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="10">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="11">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="12">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" xfId="14">

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -101,7 +101,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F50" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBD4F46" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
@@ -140,13 +146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4C4" tint="0"/>
+        <fgColor rgb="FFF0F8FF" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7FFFD4" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -169,7 +181,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -177,19 +189,19 @@
     <xf numFmtId="49" fontId="2" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2">
+    <xf numFmtId="49" fontId="2" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
+    <xf numFmtId="49" fontId="1" fillId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
+    <xf numFmtId="164" fontId="1" fillId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
@@ -201,7 +213,7 @@
     <xf numFmtId="165" fontId="1" fillId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4">
+    <xf numFmtId="165" fontId="1" fillId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="1">
@@ -210,44 +222,50 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
+    <xf numFmtId="49" fontId="3" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
+    <xf numFmtId="49" fontId="1" fillId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2">
+    <xf numFmtId="49" fontId="1" fillId="8">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -255,19 +273,19 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="7">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="7">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="8">
@@ -279,7 +297,7 @@
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="10">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="11">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" xfId="11">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="12">
@@ -288,44 +306,50 @@
     <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" xfId="14">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" xfId="16">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" xfId="17">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" xfId="18">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="6" applyFill="1" xfId="20">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="21">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="22">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="23">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" xfId="24">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="25">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="14">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="18">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" xfId="19">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="20">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" xfId="21">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" xfId="22">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" xfId="23">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" xfId="24">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" xfId="25">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" xfId="26">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" xfId="27">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="28">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
@@ -350,8 +374,10 @@
     <cellStyle name="WhenChangeIdFirstStyle_Alternate" xfId="21"/>
     <cellStyle name="WhenChangeIdSecondStyle" xfId="22"/>
     <cellStyle name="WhenChangeIdSecondStyle_Alternate" xfId="23"/>
-    <cellStyle name="QuantityEqualsZeroStyle" xfId="24"/>
-    <cellStyle name="QuantityEqualsZeroStyle_Alternate" xfId="25"/>
+    <cellStyle name="QuantityEqualsToConditionStyle" xfId="24"/>
+    <cellStyle name="QuantityEqualsToConditionStyle_Alternate" xfId="25"/>
+    <cellStyle name="PriceyEqualsToConditionStyle" xfId="26"/>
+    <cellStyle name="PriceyEqualsToConditionStyle_Alternate" xfId="27"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -383,19 +409,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="0">
         <v>37</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="0">
         <v>3.9900000095367432</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="0">
         <v>147.6300048828125</v>
       </c>
     </row>
@@ -403,7 +429,7 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="11">
@@ -417,19 +443,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="0">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="0">
         <v>22.100000381469727</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="0">
         <v>100.5</v>
       </c>
     </row>
@@ -437,7 +463,7 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11">
@@ -454,7 +480,7 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10">
@@ -471,7 +497,7 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="11">
@@ -485,19 +511,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="0">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="0">
         <v>22.100000381469727</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="0">
         <v>100.5</v>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -128,7 +128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F50" tint="0"/>
+        <fgColor rgb="FFFF0000" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -370,10 +370,10 @@
     <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
     <cellStyle name="FirstLineStyle" xfId="18"/>
     <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
-    <cellStyle name="WhenChangeIdFirstStyle" xfId="20"/>
-    <cellStyle name="WhenChangeIdFirstStyle_Alternate" xfId="21"/>
-    <cellStyle name="WhenChangeIdSecondStyle" xfId="22"/>
-    <cellStyle name="WhenChangeIdSecondStyle_Alternate" xfId="23"/>
+    <cellStyle name="WCFirstStyle" xfId="20"/>
+    <cellStyle name="WCFirstStyle_Alternate" xfId="21"/>
+    <cellStyle name="WCSecondStyle" xfId="22"/>
+    <cellStyle name="WCSecondStyle_Alternate" xfId="23"/>
     <cellStyle name="QuantityEqualsToConditionStyle" xfId="24"/>
     <cellStyle name="QuantityEqualsToConditionStyle_Alternate" xfId="25"/>
     <cellStyle name="PriceyEqualsToConditionStyle" xfId="26"/>
@@ -409,121 +409,121 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="20">
         <v>37</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="20">
         <v>3.9900000095367432</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="20">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="22">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="22">
         <v>12.100000381469727</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="22">
         <v>60.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="22">
         <v>7</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="22">
         <v>22.100000381469727</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="22">
         <v>100.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="20">
         <v>12</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="20">
         <v>15.369999885559082</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="20">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="22">
         <v>20</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
         <v>8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="22">
         <v>160</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="20">
         <v>23.479999542236328</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="20">
         <v>164.36000061035156</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="20">
         <v>7</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="20">
         <v>22.100000381469727</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="20">
         <v>100.5</v>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -376,8 +376,8 @@
     <cellStyle name="WCSecondStyle_Alternate" xfId="23"/>
     <cellStyle name="QuantityEqualsToConditionStyle" xfId="24"/>
     <cellStyle name="QuantityEqualsToConditionStyle_Alternate" xfId="25"/>
-    <cellStyle name="PriceyEqualsToConditionStyle" xfId="26"/>
-    <cellStyle name="PriceyEqualsToConditionStyle_Alternate" xfId="27"/>
+    <cellStyle name="RemarksProductStyle" xfId="26"/>
+    <cellStyle name="RemarksProductStyle_Alternate" xfId="27"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -409,121 +409,121 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="10">
         <v>37</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="6">
         <v>3.9900000095367432</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="6">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="7">
         <v>12.100000381469727</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="7">
         <v>60.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="6">
         <v>22.100000381469727</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="6">
         <v>100.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="11">
         <v>12</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="7">
         <v>15.369999885559082</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="7">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="10">
         <v>20</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="11">
         <v>7</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="7">
         <v>23.479999542236328</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="7">
         <v>164.36000061035156</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10">
         <v>7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="6">
         <v>22.100000381469727</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="6">
         <v>100.5</v>
       </c>
     </row>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$B$2:$F$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -34,34 +34,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>Nails</t>
-  </si>
-  <si>
     <t>12002</t>
   </si>
   <si>
     <t>Hammer</t>
-  </si>
-  <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>12010</t>
-  </si>
-  <si>
-    <t>Drill</t>
-  </si>
-  <si>
-    <t>12013</t>
-  </si>
-  <si>
-    <t>Crowbar</t>
   </si>
 </sst>
 </file>
@@ -385,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
@@ -416,128 +392,43 @@
         <v>6</v>
       </c>
       <c r="D3" s="10">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
-        <v>3.9900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="F3" s="6">
-        <v>147.6300048828125</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5</v>
-      </c>
       <c r="E4" s="7">
-        <v>12.100000381469727</v>
+        <v>22.100000381469727</v>
       </c>
       <c r="F4" s="7">
-        <v>60.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6">
-        <v>22.100000381469727</v>
-      </c>
-      <c r="F5" s="6">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7">
-        <v>15.369999885559082</v>
-      </c>
-      <c r="F6" s="7">
-        <v>184.44000244140625</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
-        <v>23.479999542236328</v>
-      </c>
-      <c r="F8" s="7">
-        <v>164.36000061035156</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6">
-        <v>22.100000381469727</v>
-      </c>
-      <c r="F9" s="6">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <f>SUBTOTAL(109,D3:D9)</f>
-      </c>
-      <c r="E10" s="8">
-        <f>SUBTOTAL(109,E3:E9)</f>
-      </c>
-      <c r="F10" s="8">
-        <f>SUBTOTAL(109,F3:F9)</f>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
+        <f>SUBTOTAL(109,D3:D4)</f>
+      </c>
+      <c r="E5" s="8">
+        <f>SUBTOTAL(109,E3:E4)</f>
+      </c>
+      <c r="F5" s="8">
+        <f>SUBTOTAL(109,F3:F4)</f>
       </c>
     </row>
   </sheetData>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$B$2:$F$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -34,10 +34,22 @@
     <t>Value</t>
   </si>
   <si>
+    <t>12001</t>
+  </si>
+  <si>
+    <t>Nails</t>
+  </si>
+  <si>
     <t>12002</t>
   </si>
   <si>
     <t>Hammer</t>
+  </si>
+  <si>
+    <t>12010</t>
+  </si>
+  <si>
+    <t>Drill</t>
   </si>
 </sst>
 </file>
@@ -361,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
@@ -392,43 +404,60 @@
         <v>6</v>
       </c>
       <c r="D3" s="10">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6">
-        <v>12.100000381469727</v>
+        <v>3.9900000095367432</v>
       </c>
       <c r="F3" s="6">
-        <v>60.5</v>
+        <v>147.6300048828125</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11">
-        <v>7</v>
-      </c>
       <c r="E4" s="7">
-        <v>22.100000381469727</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="F4" s="7">
-        <v>100.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <f>SUBTOTAL(109,D3:D4)</f>
-      </c>
-      <c r="E5" s="8">
-        <f>SUBTOTAL(109,E3:E4)</f>
-      </c>
-      <c r="F5" s="8">
-        <f>SUBTOTAL(109,F3:F4)</f>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
+        <f>SUBTOTAL(109,D3:D5)</f>
+      </c>
+      <c r="E6" s="8">
+        <f>SUBTOTAL(109,E3:E5)</f>
+      </c>
+      <c r="F6" s="8">
+        <f>SUBTOTAL(109,F3:F5)</f>
       </c>
     </row>
   </sheetData>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$B$2:$F$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -46,10 +46,22 @@
     <t>Hammer</t>
   </si>
   <si>
+    <t>12003</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
     <t>12010</t>
   </si>
   <si>
     <t>Drill</t>
+  </si>
+  <si>
+    <t>12013</t>
+  </si>
+  <si>
+    <t>Crowbar</t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
@@ -414,50 +426,118 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="26">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="26">
         <v>12.100000381469727</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="26">
         <v>60.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26">
+        <v>22.100000381469727</v>
+      </c>
+      <c r="F5" s="26">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="11">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15.369999885559082</v>
+      </c>
+      <c r="F6" s="7">
+        <v>184.44000244140625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="26">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="26">
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F7" s="26">
         <v>160</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
-        <f>SUBTOTAL(109,D3:D5)</f>
-      </c>
-      <c r="E6" s="8">
-        <f>SUBTOTAL(109,E3:E5)</f>
-      </c>
-      <c r="F6" s="8">
-        <f>SUBTOTAL(109,F3:F5)</f>
+    <row r="8">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>23.479999542236328</v>
+      </c>
+      <c r="F8" s="7">
+        <v>164.36000061035156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>22.100000381469727</v>
+      </c>
+      <c r="F9" s="6">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
+        <f>SUBTOTAL(109,D3:D9)</f>
+      </c>
+      <c r="E10" s="8">
+        <f>SUBTOTAL(109,E3:E9)</f>
+      </c>
+      <c r="F10" s="8">
+        <f>SUBTOTAL(109,F3:F9)</f>
       </c>
     </row>
   </sheetData>

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -409,122 +409,122 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="20">
         <v>37</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="20">
         <v>3.9900000095367432</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="20">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>5</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>12.100000381469727</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>60.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>22.100000381469727</v>
+      </c>
+      <c r="F5" s="22">
+        <v>44.200000762939453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20">
+        <v>15.369999885559082</v>
+      </c>
+      <c r="F6" s="20">
+        <v>184.44000244140625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22">
+        <v>20</v>
+      </c>
+      <c r="E7" s="22">
+        <v>8</v>
+      </c>
+      <c r="F7" s="22">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E8" s="20">
+        <v>23.479999542236328</v>
+      </c>
+      <c r="F8" s="20">
+        <v>164.36000061035156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
         <v>22.100000381469727</v>
       </c>
-      <c r="F5" s="26">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7">
-        <v>15.369999885559082</v>
-      </c>
-      <c r="F6" s="7">
-        <v>184.44000244140625</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="26">
-        <v>20</v>
-      </c>
-      <c r="E7" s="26">
-        <v>8</v>
-      </c>
-      <c r="F7" s="26">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
-        <v>23.479999542236328</v>
-      </c>
-      <c r="F8" s="7">
-        <v>164.36000061035156</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="F9" s="22">
         <v>22.100000381469727</v>
-      </c>
-      <c r="F9" s="6">
-        <v>100.5</v>
       </c>
     </row>
     <row r="10">

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample90-file.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPPlus - Some data'!$B$2:$F$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EPPlus - Some data'!$A$1:$F$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'EPPlus - Some data'!$1:$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Id</t>
   </si>
@@ -33,44 +33,14 @@
   <si>
     <t>Value</t>
   </si>
-  <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>Nails</t>
-  </si>
-  <si>
-    <t>12002</t>
-  </si>
-  <si>
-    <t>Hammer</t>
-  </si>
-  <si>
-    <t>12003</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>12010</t>
-  </si>
-  <si>
-    <t>Drill</t>
-  </si>
-  <si>
-    <t>12013</t>
-  </si>
-  <si>
-    <t>Crowbar</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="###0.00;[Black]\-###0.00"/>
-    <numFmt numFmtId="165" formatCode="###0;[Black]\-###0"/>
+    <numFmt numFmtId="164" formatCode="##0.00;[Black]\-##0.00"/>
+    <numFmt numFmtId="165" formatCode="##0;[Black]\-##0"/>
     <numFmt numFmtId="166" formatCode="[$-409]M/d/yyyy"/>
   </numFmts>
   <fonts count="5">
@@ -385,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
@@ -409,135 +379,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="20">
-        <v>37</v>
-      </c>
-      <c r="E3" s="20">
-        <v>3.9900000095367432</v>
-      </c>
-      <c r="F3" s="20">
-        <v>147.6300048828125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="22">
-        <v>5</v>
-      </c>
-      <c r="E4" s="22">
-        <v>12.100000381469727</v>
-      </c>
-      <c r="F4" s="22">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>22.100000381469727</v>
-      </c>
-      <c r="F5" s="22">
-        <v>44.200000762939453</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20">
-        <v>12</v>
-      </c>
-      <c r="E6" s="20">
-        <v>15.369999885559082</v>
-      </c>
-      <c r="F6" s="20">
-        <v>184.44000244140625</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22">
-        <v>20</v>
-      </c>
-      <c r="E7" s="22">
-        <v>8</v>
-      </c>
-      <c r="F7" s="22">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="20">
-        <v>7</v>
-      </c>
-      <c r="E8" s="20">
-        <v>23.479999542236328</v>
-      </c>
-      <c r="F8" s="20">
-        <v>164.36000061035156</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22">
-        <v>22.100000381469727</v>
-      </c>
-      <c r="F9" s="22">
-        <v>22.100000381469727</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <f>SUBTOTAL(109,D3:D9)</f>
-      </c>
-      <c r="E10" s="8">
-        <f>SUBTOTAL(109,E3:E9)</f>
-      </c>
-      <c r="F10" s="8">
-        <f>SUBTOTAL(109,F3:F9)</f>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12">
+        <f>SUBTOTAL(109,D3:D2)</f>
+      </c>
+      <c r="E3" s="8">
+        <f>SUBTOTAL(109,E3:E2)</f>
+      </c>
+      <c r="F3" s="8">
+        <f>SUBTOTAL(109,F3:F2)</f>
       </c>
     </row>
   </sheetData>
